--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-O.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-O.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-O.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-O.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'O': 225.0 ton, 2.39 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'O': 150.0-300.0 ton, 5.17 COP, 7.99 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>5f1cd888-7227-4807-8f81-d4ce0701d1fc</t>
+          <t>c72c5598-9cea-4f23-a182-968c79e2b922</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>381062.0330767015</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44566.35851832233</v>
+        <v>20607.48128639453</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>193713.0171407038</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>238279.3756590261</v>
+        <v>214320.4984270984</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.396755591981</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0179956844084</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>88213.79778665568</v>
+        <v>40790.05437123451</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>387426.0342814077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>475639.8320680633</v>
+        <v>428216.0886526422</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7546222950731</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.1040091893013</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>152680.1231357319</v>
+        <v>70599.27902860772</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>581139.0514221115</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>733819.1745578434</v>
+        <v>651738.3304507192</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.1124889981651</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.2852769407631</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>237965.3345655509</v>
+        <v>110035.1552585142</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>774852.0685628153</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1012817.403128366</v>
+        <v>884887.2238213295</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.4703557012572</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.561798938794</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53443.467302016</v>
+        <v>24712.25581182601</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>190437.762947782</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>243881.230249798</v>
+        <v>215150.018759608</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3737971007119</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1216925798094</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105784.977151758</v>
+        <v>48914.96656924058</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>380875.5258955641</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>486660.5030473221</v>
+        <v>429790.4924648046</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7087053125349</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2364733987519</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183092.2570242661</v>
+        <v>84661.84776483585</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>571313.2888433461</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>754405.5458676121</v>
+        <v>655975.1366081819</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0436135243579</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.4658906989343</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>285365.3069195402</v>
+        <v>131952.8993986119</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>761751.0517911281</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1047116.358710668</v>
+        <v>893703.9511897401</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3785217361809</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8099444803568</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>61559.87851632985</v>
+        <v>28465.2838305476</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>181038.0280742017</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>242597.9065905316</v>
+        <v>209503.3119047494</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3079079457593</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.1934649539337</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121850.4462952257</v>
+        <v>56343.63845848745</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>362076.0561484035</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>483926.5024436292</v>
+        <v>418419.694606891</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5769270026296</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3051568404401</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>210898.3130903501</v>
+        <v>97519.36628510455</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>543114.0842226052</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>754012.3973129553</v>
+        <v>640633.4505077098</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.8459460595</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5493206202221</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>328703.4789017031</v>
+        <v>151992.467310399</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>724152.112296807</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1052855.59119851</v>
+        <v>876144.5796072059</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.1149651163703</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.9259562932796</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67575.07266645052</v>
+        <v>31246.70921516096</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>165513.812519963</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>233088.8851864135</v>
+        <v>196760.5217351239</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.199088127123</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2272050604221</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>133756.8065644424</v>
+        <v>61849.13867421812</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>331027.625039926</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>464784.4316043684</v>
+        <v>392876.7637141441</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.3592873653572</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.2979708967214</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231505.7985134228</v>
+        <v>107048.2662072516</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>496541.4375598889</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>728047.2360733118</v>
+        <v>603589.7037671405</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.5194866035914</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5146227545226</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>360822.0485133918</v>
+        <v>166844.0918142614</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>662055.2500798519</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1022877.298593244</v>
+        <v>828899.3418941133</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.6796858418255</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.8771606338258</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45481.0651008178</v>
+        <v>21030.4415507735</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>211050.9086932965</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>256531.9737941143</v>
+        <v>232081.35024407</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4104061915653</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.1015081968714</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>90024.35050366094</v>
+        <v>41627.25383006796</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>422101.817386593</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>512126.1678902539</v>
+        <v>463729.071216661</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8930346053528</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.2709479205728</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>155813.8212499958</v>
+        <v>72048.30083325783</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>633152.7260798896</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>788966.5473298853</v>
+        <v>705201.0269131474</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.3756630191403</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.5375969459395</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>242849.4773398222</v>
+        <v>112293.5825603431</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>844203.6347731861</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1087053.112113008</v>
+        <v>956497.2173335291</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.8582914329278</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.9014552729716</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54578.03650822768</v>
+        <v>25236.88053914167</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>208920.5042324734</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>263498.5407407011</v>
+        <v>234157.3847716151</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3954401428236</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.2117702919736</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>108030.7217416055</v>
+        <v>49953.39872183109</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>417841.0084649468</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>525871.7302065523</v>
+        <v>467794.4071867779</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8631025078695</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.416521404583</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>186979.1836628694</v>
+        <v>86459.1623902539</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>626761.5126974202</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>813740.6963602896</v>
+        <v>713220.6750876741</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.3307648729153</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.7383426545569</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>291423.4222720193</v>
+        <v>134754.1715444101</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>835682.0169298936</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1127105.439201913</v>
+        <v>970436.1884743037</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7984272379612</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.1772340418955</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63372.42746392894</v>
+        <v>29303.40634627807</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>200665.6190909919</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>264038.0465549208</v>
+        <v>229969.02543727</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3374497397541</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2922299989949</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>125438.1710198335</v>
+        <v>58002.60213829303</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>401331.2381819839</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>526769.4092018175</v>
+        <v>459333.8403202769</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7471217017305</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.5025147692387</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>217107.9341074049</v>
+        <v>100390.6946403694</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>601996.8572729758</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>819104.7913803807</v>
+        <v>702387.5519133452</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1567936637068</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8491718918968</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>338381.7167266429</v>
+        <v>156467.6838525072</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>802662.4763639678</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1141044.193090611</v>
+        <v>959130.1602164749</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5664656256831</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3322013669693</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>70642.81229508632</v>
+        <v>32665.23182033752</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>186286.253268852</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>256929.0655639383</v>
+        <v>218951.4850891895</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2364349823567</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.3373808970928</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>139829.0317194622</v>
+        <v>64656.93519179538</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>372572.506537704</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>512401.5382571662</v>
+        <v>437229.4417294994</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5450921869357</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.5180302453602</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>242015.5839170455</v>
+        <v>111907.9902957731</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>558858.7598065559</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>800874.3437236014</v>
+        <v>670766.7501023291</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8537493915147</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.8511884763676</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>377202.4688878362</v>
+        <v>174418.3971322707</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>745145.0130754079</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1122347.481963244</v>
+        <v>919563.4102076786</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1624065960936</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3368555901151</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>46407.30784954647</v>
+        <v>21458.73613766996</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>218886.9463718148</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>265294.2542213613</v>
+        <v>240345.6825094848</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.3572175694944</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.141598930693</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>91857.73768749634</v>
+        <v>42475.01194488164</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>437773.8927436297</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>529631.630431126</v>
+        <v>480248.9046885113</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.8977684723221</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.3510420062365</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>158987.0411771147</v>
+        <v>73515.59752160707</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>656660.8391154446</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>815647.8802925593</v>
+        <v>730176.4366370516</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.4383193751499</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.6596740954546</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>247795.2183184016</v>
+        <v>114580.4928678462</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>875547.7854872594</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1123343.003805661</v>
+        <v>990128.2783551055</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.9788702779776</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.0674951983474</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>55112.58073629547</v>
+        <v>25484.05375550684</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>217901.3916430905</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>273013.972379386</v>
+        <v>243385.4453985973</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3502811246662</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2554627396547</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>109088.7883642892</v>
+        <v>50442.64865948867</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>435802.783286181</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>544891.5716504701</v>
+        <v>486245.4319456696</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.8838955826657</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5038556904826</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>188810.4815583285</v>
+        <v>87305.954418258</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>653704.1749292715</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>842514.6564875999</v>
+        <v>741010.1293475295</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.4175100406653</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.8704653784836</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>294277.6603184133</v>
+        <v>136073.9710318149</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>871605.566572362</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1165883.226890775</v>
+        <v>1007679.537604177</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.9511244986648</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.3552918036577</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>63799.46703442897</v>
+        <v>29500.86941596126</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>210791.3562337078</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>274590.8232681368</v>
+        <v>240292.225649669</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.300239897217</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3408418769645</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>126283.4449791924</v>
+        <v>58393.45676224001</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>421582.7124674155</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>547866.1574466079</v>
+        <v>479976.1692296556</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7838131277672</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5996979636815</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>218570.9312284501</v>
+        <v>101067.1844141882</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>632374.0687011234</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>850944.9999295735</v>
+        <v>733441.2531153116</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.2673863583175</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>307.9958453575244</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>340661.925782202</v>
+        <v>157522.0523718059</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>843165.4249348311</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1183827.350717033</v>
+        <v>1000687.477306637</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.7509595888678</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5292840584933</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>71365.63489308985</v>
+        <v>32999.46494274121</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>197556.8401436666</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>268922.4750367565</v>
+        <v>230556.3050864078</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2070938871467</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3928076557111</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>141259.7729470565</v>
+        <v>65318.50984257595</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>395113.6802873332</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>536373.4532343897</v>
+        <v>460432.1901299091</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5975211076267</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.6288148848801</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>244491.905674927</v>
+        <v>113053.0413158975</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>592670.5204309998</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>837162.4261059267</v>
+        <v>705723.5617468973</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9879483281067</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0188914792113</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>381062.0330767015</v>
+        <v>176203.0593627058</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>790227.3605746664</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1171289.393651368</v>
+        <v>966430.4199373722</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3783755485867</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5630374387048</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>47704.906788777</v>
+        <v>22058.74580295246</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>217221.1301762592</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>264926.0369650362</v>
+        <v>239279.8759792117</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2369149548355</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.139914198033</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>94426.18021318311</v>
+        <v>43662.6596020603</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>434442.2603525184</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>528868.4405657016</v>
+        <v>478104.9199545787</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.7682743541155</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3475501250984</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>163432.4922395133</v>
+        <v>75571.17380433832</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>651663.3905287776</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>815095.8827682909</v>
+        <v>727234.5643331159</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.2996337533955</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.6571484988363</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>254723.8428677677</v>
+        <v>117784.2884097865</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>868884.5207050368</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1123608.363572804</v>
+        <v>986668.8091148234</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.8309931526754</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.0687093192466</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>55582.68774815374</v>
+        <v>25701.43120727889</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>217380.4251796336</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>272963.1129277874</v>
+        <v>243081.8563869125</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2380379482593</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2552292059578</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>110019.3091934727</v>
+        <v>50872.92143050976</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>434760.8503592673</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>544780.1595527399</v>
+        <v>485633.771789777</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.7705203409629</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.503344114399</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>190421.0236542905</v>
+        <v>88050.66897890229</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>652141.2755389009</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>842562.2991931913</v>
+        <v>740191.9445178031</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.3030027336666</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.870684141699</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>296787.8311306073</v>
+        <v>137234.6738524565</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>869521.7007185345</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1166309.531849142</v>
+        <v>1006756.374570991</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.8354851263702</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.3572492878578</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>63552.35272743004</v>
+        <v>29386.60377644334</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>211415.2395023497</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>274967.5922297797</v>
+        <v>240801.843278793</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1959847504513</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3425774814678</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>125794.3116456078</v>
+        <v>58167.28154053656</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>422830.4790046993</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>548624.7906503072</v>
+        <v>480997.7605452359</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6864139453471</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6031926443446</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>217724.3410183551</v>
+        <v>100675.7211559863</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>634245.718507049</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>851970.0595254041</v>
+        <v>734921.4396630353</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1768431402429</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0005673442904</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>339342.4408456716</v>
+        <v>156911.9226227925</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>845660.9580093987</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1185003.39885507</v>
+        <v>1002572.880632191</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.6672723351386</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5347015813052</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>70630.66369772688</v>
+        <v>32659.61430970699</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>199325.5731444072</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>269956.2368421342</v>
+        <v>231985.1874541142</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1107553614118</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3975851183822</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>139804.9850181726</v>
+        <v>64645.81599867975</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>398651.1462888145</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>538456.131306987</v>
+        <v>463296.9622874942</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5159551672681</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.638439845578</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>241973.9639731588</v>
+        <v>111888.7452364211</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>597976.7194332217</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>839950.6834063806</v>
+        <v>709865.4646696429</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9211549731243</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.0317772282311</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.05217966941263787</v>
+        <v>0.04390836612922708</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>377137.6005626856</v>
+        <v>174388.4020229312</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>797302.292577629</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1174439.893140315</v>
+        <v>971690.6946005602</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3263547789805</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5775972663416</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.03390460960124702</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.04390836612922708</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.04390836612922708</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.04390836612922708</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.04390836612922708</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>